--- a/results-partial/HW_C002_120.xlsx
+++ b/results-partial/HW_C002_120.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,400 +445,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>28.20305651627879</v>
-      </c>
-      <c r="C2" t="n">
-        <v>33.33257380775511</v>
-      </c>
-      <c r="D2" t="n">
-        <v>32.71889453858851</v>
-      </c>
-      <c r="E2" t="n">
-        <v>33.08583348677551</v>
-      </c>
-      <c r="F2" t="n">
-        <v>32.71889453858851</v>
-      </c>
-      <c r="G2" t="n">
-        <v>28.620711893395</v>
-      </c>
-      <c r="H2" t="n">
-        <v>33.00751797920881</v>
-      </c>
-      <c r="I2" t="n">
-        <v>32.67859405226891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28.1580144094411</v>
+        <v>28.20305651627879</v>
       </c>
       <c r="C3" t="n">
-        <v>33.30889526081745</v>
+        <v>33.33257380775511</v>
       </c>
       <c r="D3" t="n">
-        <v>32.68948542276712</v>
+        <v>32.71889453858851</v>
       </c>
       <c r="E3" t="n">
-        <v>33.05288682027875</v>
+        <v>33.08583348677551</v>
       </c>
       <c r="F3" t="n">
-        <v>32.68948542276712</v>
+        <v>32.71889453858851</v>
       </c>
       <c r="G3" t="n">
-        <v>28.57108847912758</v>
+        <v>31.45731397180237</v>
       </c>
       <c r="H3" t="n">
-        <v>32.99401465644112</v>
+        <v>33.00751797920881</v>
       </c>
       <c r="I3" t="n">
-        <v>32.669660807113</v>
+        <v>32.67859405226891</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28.16987348421478</v>
+        <v>28.1580144094411</v>
       </c>
       <c r="C4" t="n">
-        <v>33.31598541923556</v>
+        <v>33.30889526081745</v>
       </c>
       <c r="D4" t="n">
-        <v>32.71434295401836</v>
+        <v>32.68948542276712</v>
       </c>
       <c r="E4" t="n">
-        <v>33.07168967496026</v>
+        <v>33.05288682027875</v>
       </c>
       <c r="F4" t="n">
-        <v>32.71434295401836</v>
+        <v>32.68948542276712</v>
       </c>
       <c r="G4" t="n">
-        <v>28.59014115122543</v>
+        <v>31.44973758653</v>
       </c>
       <c r="H4" t="n">
-        <v>32.99175526194325</v>
+        <v>32.99401465644112</v>
       </c>
       <c r="I4" t="n">
-        <v>32.67907790070751</v>
+        <v>32.669660807113</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28.15600956894925</v>
+        <v>28.16987348421478</v>
       </c>
       <c r="C5" t="n">
-        <v>33.34160156890117</v>
+        <v>33.31598541923556</v>
       </c>
       <c r="D5" t="n">
-        <v>32.68481163890026</v>
+        <v>32.71434295401836</v>
       </c>
       <c r="E5" t="n">
-        <v>33.05307037133178</v>
+        <v>33.07168967496026</v>
       </c>
       <c r="F5" t="n">
-        <v>32.68481163890026</v>
+        <v>32.71434295401836</v>
       </c>
       <c r="G5" t="n">
-        <v>28.57275207901566</v>
+        <v>31.46408361003281</v>
       </c>
       <c r="H5" t="n">
-        <v>33.02847833869218</v>
+        <v>32.99175526194325</v>
       </c>
       <c r="I5" t="n">
-        <v>32.70791871302346</v>
+        <v>32.67907790070751</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>28.16395428689887</v>
+        <v>28.15600956894925</v>
       </c>
       <c r="C6" t="n">
-        <v>33.30327285620803</v>
+        <v>33.34160156890117</v>
       </c>
       <c r="D6" t="n">
-        <v>32.67916814984497</v>
+        <v>32.68481163890026</v>
       </c>
       <c r="E6" t="n">
-        <v>33.0152401831426</v>
+        <v>33.05307037133178</v>
       </c>
       <c r="F6" t="n">
-        <v>32.67914357288511</v>
+        <v>32.68481163890026</v>
       </c>
       <c r="G6" t="n">
-        <v>28.57866723442601</v>
+        <v>31.4851853405128</v>
       </c>
       <c r="H6" t="n">
-        <v>32.97946245982602</v>
+        <v>33.02847833869218</v>
       </c>
       <c r="I6" t="n">
-        <v>32.65235375703056</v>
+        <v>32.70791871302346</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>28.16339661077645</v>
+        <v>28.16395428689887</v>
       </c>
       <c r="C7" t="n">
-        <v>33.30603776564178</v>
+        <v>33.30327285620803</v>
       </c>
       <c r="D7" t="n">
-        <v>32.683491022928</v>
+        <v>32.67916814984497</v>
       </c>
       <c r="E7" t="n">
-        <v>33.02672599083938</v>
+        <v>33.0152401831426</v>
       </c>
       <c r="F7" t="n">
-        <v>32.683491022928</v>
+        <v>32.67914357288511</v>
       </c>
       <c r="G7" t="n">
-        <v>28.58129888520171</v>
+        <v>31.44061553366222</v>
       </c>
       <c r="H7" t="n">
-        <v>33.00158832012826</v>
+        <v>32.97946245982602</v>
       </c>
       <c r="I7" t="n">
-        <v>32.66747878294922</v>
+        <v>32.65235375703056</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>28.14633007291994</v>
+        <v>28.16339661077645</v>
       </c>
       <c r="C8" t="n">
-        <v>33.34438489123838</v>
+        <v>33.30603776564178</v>
       </c>
       <c r="D8" t="n">
-        <v>32.72186661448497</v>
+        <v>32.683491022928</v>
       </c>
       <c r="E8" t="n">
-        <v>33.06136988566193</v>
+        <v>33.02672599083938</v>
       </c>
       <c r="F8" t="n">
-        <v>32.72186661448497</v>
+        <v>32.683491022928</v>
       </c>
       <c r="G8" t="n">
-        <v>28.56852664579571</v>
+        <v>31.45247602913908</v>
       </c>
       <c r="H8" t="n">
-        <v>32.98248055393285</v>
+        <v>33.00158832012826</v>
       </c>
       <c r="I8" t="n">
-        <v>32.64104335751821</v>
+        <v>32.66747878294922</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28.20476797677451</v>
+        <v>28.14633007291994</v>
       </c>
       <c r="C9" t="n">
-        <v>33.32626313734192</v>
+        <v>33.34438489123838</v>
       </c>
       <c r="D9" t="n">
-        <v>32.69546505606139</v>
+        <v>32.72186661448497</v>
       </c>
       <c r="E9" t="n">
-        <v>33.07790888557462</v>
+        <v>33.06136988566193</v>
       </c>
       <c r="F9" t="n">
-        <v>32.69547799741995</v>
+        <v>32.72186661448497</v>
       </c>
       <c r="G9" t="n">
-        <v>28.63148554905333</v>
+        <v>31.47039955778281</v>
       </c>
       <c r="H9" t="n">
-        <v>33.01067652988006</v>
+        <v>32.98248055393285</v>
       </c>
       <c r="I9" t="n">
-        <v>32.65604721954682</v>
+        <v>32.64104335751821</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>28.18092803791902</v>
+        <v>28.20476797677451</v>
       </c>
       <c r="C10" t="n">
-        <v>33.30607919217525</v>
+        <v>33.32626313734192</v>
       </c>
       <c r="D10" t="n">
-        <v>32.67331188871419</v>
+        <v>32.69546505606139</v>
       </c>
       <c r="E10" t="n">
-        <v>33.0104238830276</v>
+        <v>33.07790888557462</v>
       </c>
       <c r="F10" t="n">
-        <v>32.67331188871419</v>
+        <v>32.69547799741995</v>
       </c>
       <c r="G10" t="n">
-        <v>28.59489388932381</v>
+        <v>31.49554974505364</v>
       </c>
       <c r="H10" t="n">
-        <v>33.00732982539505</v>
+        <v>33.01067652988006</v>
       </c>
       <c r="I10" t="n">
-        <v>32.68250505813887</v>
+        <v>32.65604721954682</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>28.18092803791902</v>
+      </c>
+      <c r="C11" t="n">
+        <v>33.30607919217525</v>
+      </c>
+      <c r="D11" t="n">
+        <v>32.67331188871419</v>
+      </c>
+      <c r="E11" t="n">
+        <v>33.0104238830276</v>
+      </c>
+      <c r="F11" t="n">
+        <v>32.67331188871419</v>
+      </c>
+      <c r="G11" t="n">
+        <v>31.44575962777119</v>
+      </c>
+      <c r="H11" t="n">
+        <v>33.00732982539505</v>
+      </c>
+      <c r="I11" t="n">
+        <v>32.68250505813887</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>28.17665405271457</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>33.33092985720752</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>32.71952075468141</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>33.05073045685555</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>32.71956874119758</v>
       </c>
-      <c r="G11" t="n">
-        <v>28.59674651973044</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>31.48649423431934</v>
+      </c>
+      <c r="H12" t="n">
         <v>32.99690069897951</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>32.66992413889999</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>28.17229850168873</v>
-      </c>
-      <c r="C12" t="n">
-        <v>33.32160237565222</v>
-      </c>
-      <c r="D12" t="n">
-        <v>32.69803580409892</v>
-      </c>
-      <c r="E12" t="n">
-        <v>33.0505879638448</v>
-      </c>
-      <c r="F12" t="n">
-        <v>32.69803943919041</v>
-      </c>
-      <c r="G12" t="n">
-        <v>28.59063123262947</v>
-      </c>
-      <c r="H12" t="n">
-        <v>33.00002046244271</v>
-      </c>
-      <c r="I12" t="n">
-        <v>32.67046037871965</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5.14930387396349</v>
-      </c>
-      <c r="D13" t="n">
-        <v>4.525737302410192</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4.878289462156069</v>
-      </c>
-      <c r="F13" t="n">
-        <v>4.525740937501681</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.4183327309407368</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4.827721960753976</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.498161877030924</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.7709107524740154</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9111014195337586</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9088365531833519</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9111692969433068</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9088365531833519</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.8806323317767126</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8961735824368408</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8900013882515402</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.7629809568271972</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9119503885113854</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9062015617933117</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9077595245443379</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9062015617933117</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.877168304530231</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8980932483214731</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.8873684667071996</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7657827502218123</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.912980320780717</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.908072535240102</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9080903478155563</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.908072535240102</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.8820405108046727</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.8941892361514165</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.8859163911136215</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7647951292727744</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.910539251281147</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9096630697347111</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9109877308197937</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9096630697347111</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.8799944415474336</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.8964559325100263</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.8863993297966904</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7631532236384434</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9094891494638143</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9110346701621732</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9135405028719945</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9110311173912603</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.8760475251381213</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8939912378743615</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.8849432337836378</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.7656545907455553</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9124112833951376</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9062861248494003</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9083442404377496</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9062861248494003</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.8801362619470614</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.8986907293900422</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.8907122372879849</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.7652726792614898</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9137182676667267</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.912384265091658</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9099778015426824</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.912384265091658</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.8791806014140516</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8960854755663579</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8876537496655428</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.7682285232048618</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9119369972868737</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9082222539182966</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9076187699583556</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9082219389044671</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.8789807146168719</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8956122653035483</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.8873322681805356</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.7677712803354562</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9103963728660696</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9074799971923317</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9106619611126576</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9074799971923317</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.8801461393280311</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8960598794435337</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.8891872442226026</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.7652385036762323</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9133406616943843</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9107058021485286</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9098420913242397</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9107066340078652</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.8757389046608614</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.8971482008542329</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.8869134838574141</v>
       </c>
     </row>
   </sheetData>
@@ -852,7 +1144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -863,400 +1155,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>19.66903947027433</v>
-      </c>
-      <c r="C2" t="n">
-        <v>30.60532744356404</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30.0997172446909</v>
-      </c>
-      <c r="E2" t="n">
-        <v>30.46620529505815</v>
-      </c>
-      <c r="F2" t="n">
-        <v>30.0997172446909</v>
-      </c>
-      <c r="G2" t="n">
-        <v>20.81828393327402</v>
-      </c>
-      <c r="H2" t="n">
-        <v>30.05712060327577</v>
-      </c>
-      <c r="I2" t="n">
-        <v>29.54380596460894</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.66565577383501</v>
+        <v>19.66903947027433</v>
       </c>
       <c r="C3" t="n">
-        <v>30.59917107584489</v>
+        <v>30.60532744356404</v>
       </c>
       <c r="D3" t="n">
-        <v>30.13050508726776</v>
+        <v>30.0997172446909</v>
       </c>
       <c r="E3" t="n">
-        <v>30.47640825916849</v>
+        <v>30.46620529505815</v>
       </c>
       <c r="F3" t="n">
-        <v>30.13056289099512</v>
+        <v>30.0997172446909</v>
       </c>
       <c r="G3" t="n">
-        <v>20.80752244456019</v>
+        <v>26.76837635542679</v>
       </c>
       <c r="H3" t="n">
-        <v>30.06586323507985</v>
+        <v>30.05712060327577</v>
       </c>
       <c r="I3" t="n">
-        <v>29.53534407776932</v>
+        <v>29.54380596460894</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.67155795443999</v>
+        <v>19.66565577383501</v>
       </c>
       <c r="C4" t="n">
-        <v>30.5790451903917</v>
+        <v>30.59917107584489</v>
       </c>
       <c r="D4" t="n">
-        <v>30.05619504329444</v>
+        <v>30.13050508726776</v>
       </c>
       <c r="E4" t="n">
-        <v>30.4856625974479</v>
+        <v>30.47640825916849</v>
       </c>
       <c r="F4" t="n">
-        <v>30.05619504329444</v>
+        <v>30.13056289099512</v>
       </c>
       <c r="G4" t="n">
-        <v>20.80477258777162</v>
+        <v>26.7317198688417</v>
       </c>
       <c r="H4" t="n">
-        <v>30.03929326543123</v>
+        <v>30.06586323507985</v>
       </c>
       <c r="I4" t="n">
-        <v>29.54416965114997</v>
+        <v>29.53534407776932</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.66982823375871</v>
+        <v>19.67155795443999</v>
       </c>
       <c r="C5" t="n">
-        <v>30.57923722360703</v>
+        <v>30.5790451903917</v>
       </c>
       <c r="D5" t="n">
-        <v>30.10935917934636</v>
+        <v>30.05619504329444</v>
       </c>
       <c r="E5" t="n">
-        <v>30.4690476380275</v>
+        <v>30.4856625974479</v>
       </c>
       <c r="F5" t="n">
-        <v>30.10934736270823</v>
+        <v>30.05619504329444</v>
       </c>
       <c r="G5" t="n">
-        <v>20.80515527618252</v>
+        <v>26.73397241689177</v>
       </c>
       <c r="H5" t="n">
-        <v>30.01422176071177</v>
+        <v>30.03929326543123</v>
       </c>
       <c r="I5" t="n">
-        <v>29.49323995929864</v>
+        <v>29.54416965114997</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.6632518252504</v>
+        <v>19.66982823375871</v>
       </c>
       <c r="C6" t="n">
-        <v>30.59721784758765</v>
+        <v>30.57923722360703</v>
       </c>
       <c r="D6" t="n">
-        <v>30.11074217102391</v>
+        <v>30.10935917934636</v>
       </c>
       <c r="E6" t="n">
-        <v>30.45862392253977</v>
+        <v>30.4690476380275</v>
       </c>
       <c r="F6" t="n">
-        <v>30.11074217102391</v>
+        <v>30.10934736270823</v>
       </c>
       <c r="G6" t="n">
-        <v>20.80174053479017</v>
+        <v>26.75278047533441</v>
       </c>
       <c r="H6" t="n">
-        <v>30.04131956310932</v>
+        <v>30.01422176071177</v>
       </c>
       <c r="I6" t="n">
-        <v>29.52515516520151</v>
+        <v>29.49323995929864</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.65307407468944</v>
+        <v>19.6632518252504</v>
       </c>
       <c r="C7" t="n">
-        <v>30.58944010290305</v>
+        <v>30.59721784758765</v>
       </c>
       <c r="D7" t="n">
-        <v>30.12547574902669</v>
+        <v>30.11074217102391</v>
       </c>
       <c r="E7" t="n">
-        <v>30.47192868226137</v>
+        <v>30.45862392253977</v>
       </c>
       <c r="F7" t="n">
-        <v>30.12546993062941</v>
+        <v>30.11074217102391</v>
       </c>
       <c r="G7" t="n">
-        <v>20.78586004596654</v>
+        <v>26.77682146166088</v>
       </c>
       <c r="H7" t="n">
-        <v>30.02211282573864</v>
+        <v>30.04131956310932</v>
       </c>
       <c r="I7" t="n">
-        <v>29.48341715228198</v>
+        <v>29.52515516520151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19.67157095610282</v>
+        <v>19.65307407468944</v>
       </c>
       <c r="C8" t="n">
-        <v>30.5760661612253</v>
+        <v>30.58944010290305</v>
       </c>
       <c r="D8" t="n">
-        <v>30.13402624499075</v>
+        <v>30.12547574902669</v>
       </c>
       <c r="E8" t="n">
-        <v>30.48138891385094</v>
+        <v>30.47192868226137</v>
       </c>
       <c r="F8" t="n">
-        <v>30.13402624499075</v>
+        <v>30.12546993062941</v>
       </c>
       <c r="G8" t="n">
-        <v>20.81322847729738</v>
+        <v>26.77170300973672</v>
       </c>
       <c r="H8" t="n">
-        <v>30.07542490954676</v>
+        <v>30.02211282573864</v>
       </c>
       <c r="I8" t="n">
-        <v>29.55948776812578</v>
+        <v>29.48341715228198</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.66022463844488</v>
+        <v>19.67157095610282</v>
       </c>
       <c r="C9" t="n">
-        <v>30.5927924008099</v>
+        <v>30.5760661612253</v>
       </c>
       <c r="D9" t="n">
-        <v>30.0861990883667</v>
+        <v>30.13402624499075</v>
       </c>
       <c r="E9" t="n">
-        <v>30.46573405124913</v>
+        <v>30.48138891385094</v>
       </c>
       <c r="F9" t="n">
-        <v>30.0861990883667</v>
+        <v>30.13402624499075</v>
       </c>
       <c r="G9" t="n">
-        <v>20.78676706858517</v>
+        <v>26.78019364546068</v>
       </c>
       <c r="H9" t="n">
-        <v>30.04663974566906</v>
+        <v>30.07542490954676</v>
       </c>
       <c r="I9" t="n">
-        <v>29.54425401981801</v>
+        <v>29.55948776812578</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.65748450088456</v>
+        <v>19.66022463844488</v>
       </c>
       <c r="C10" t="n">
-        <v>30.6032178111639</v>
+        <v>30.5927924008099</v>
       </c>
       <c r="D10" t="n">
-        <v>30.10658916898408</v>
+        <v>30.0861990883667</v>
       </c>
       <c r="E10" t="n">
-        <v>30.45898057836481</v>
+        <v>30.46573405124913</v>
       </c>
       <c r="F10" t="n">
-        <v>30.10658916898408</v>
+        <v>30.0861990883667</v>
       </c>
       <c r="G10" t="n">
-        <v>20.79545844396749</v>
+        <v>26.76864733229177</v>
       </c>
       <c r="H10" t="n">
-        <v>30.08895833902996</v>
+        <v>30.04663974566906</v>
       </c>
       <c r="I10" t="n">
-        <v>29.55487052702894</v>
+        <v>29.54425401981801</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>19.65748450088456</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30.6032178111639</v>
+      </c>
+      <c r="D11" t="n">
+        <v>30.10658916898408</v>
+      </c>
+      <c r="E11" t="n">
+        <v>30.45898057836481</v>
+      </c>
+      <c r="F11" t="n">
+        <v>30.10658916898408</v>
+      </c>
+      <c r="G11" t="n">
+        <v>26.76501859589438</v>
+      </c>
+      <c r="H11" t="n">
+        <v>30.08895833902996</v>
+      </c>
+      <c r="I11" t="n">
+        <v>29.55487052702894</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>19.66824831209693</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>30.60156989758216</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>30.15235540700015</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>30.48337383349216</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>30.15231960447867</v>
       </c>
-      <c r="G11" t="n">
-        <v>20.80021756431988</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>26.75296802596848</v>
+      </c>
+      <c r="H12" t="n">
         <v>30.04012679888558</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>29.50300359401016</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>19.66499357397771</v>
-      </c>
-      <c r="C12" t="n">
-        <v>30.59230851546796</v>
-      </c>
-      <c r="D12" t="n">
-        <v>30.11111643839917</v>
-      </c>
-      <c r="E12" t="n">
-        <v>30.47173537714603</v>
-      </c>
-      <c r="F12" t="n">
-        <v>30.11111687501622</v>
-      </c>
-      <c r="G12" t="n">
-        <v>20.8019006376715</v>
-      </c>
-      <c r="H12" t="n">
-        <v>30.04910810464779</v>
-      </c>
-      <c r="I12" t="n">
-        <v>29.52867478792933</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>10.92731494149025</v>
-      </c>
-      <c r="D13" t="n">
-        <v>10.44612286442146</v>
-      </c>
-      <c r="E13" t="n">
-        <v>10.80674180316832</v>
-      </c>
-      <c r="F13" t="n">
-        <v>10.44612330103852</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.136907063693794</v>
-      </c>
-      <c r="H13" t="n">
-        <v>10.38411453067009</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9.863681213951619</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4638659402028439</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.856247733356763</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8587521741226579</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.844900410660171</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8587521741226579</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.7523954247676617</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8305755068810314</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8147627159944074</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4637001723525913</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8597453407879385</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8727738076921885</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.855549308026471</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.8727764563208026</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.7569652214261302</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8347671701761163</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.8246157768369299</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.4636147289124633</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8568209571972378</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8663878999398225</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8500049028147951</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.8663878999398225</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.7538906163949635</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.8341147555912075</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.8199956992320506</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.4636487667607024</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8545351496739659</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8722725208772897</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8473894472093515</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.8722710468402285</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.7519189811486315</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.8301852621579019</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.8179726388302977</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.4639266096709793</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8557263066771286</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8629128309976892</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8469563699618692</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.8629128309976892</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.7537219997007317</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8330436774176947</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.8159055531105707</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.4624299666701767</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8590751668901697</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.868805872124596</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8477042546388128</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.868805827083785</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.7500628121489142</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.8281198705003572</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.8168857130853683</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4642086322275329</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8606191144773356</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8591015078358984</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8534835226647509</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8591015078358984</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.7486783125231106</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8369646541794536</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8180122408799456</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.463503325403768</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8590989645597595</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8673171204918561</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8517394185650824</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.8673171204918561</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.7520015138400673</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8338334974828634</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.8154560779554666</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.4633720995220901</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8615897979261018</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8639194750224424</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8500974711215964</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.8639194750224424</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.7518561611858997</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8318547814987219</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.8133895847434971</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.4634709423977931</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8563371270826142</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8592062670776861</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.854236699494386</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8592058312805907</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.7572527000982474</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.8397927525702179</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.821751004716751</v>
       </c>
     </row>
   </sheetData>
@@ -1270,7 +1854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1281,400 +1865,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>14.47884779077478</v>
-      </c>
-      <c r="C2" t="n">
-        <v>27.79471002795838</v>
-      </c>
-      <c r="D2" t="n">
-        <v>27.18058117901942</v>
-      </c>
-      <c r="E2" t="n">
-        <v>27.36337828585079</v>
-      </c>
-      <c r="F2" t="n">
-        <v>27.18058117901942</v>
-      </c>
-      <c r="G2" t="n">
-        <v>17.13107069538895</v>
-      </c>
-      <c r="H2" t="n">
-        <v>25.12171099451316</v>
-      </c>
-      <c r="I2" t="n">
-        <v>23.98228593436999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.4995165635431</v>
+        <v>14.47884779077478</v>
       </c>
       <c r="C3" t="n">
-        <v>27.73189931201593</v>
+        <v>27.79471002795838</v>
       </c>
       <c r="D3" t="n">
-        <v>27.14027986588828</v>
+        <v>27.18058117901942</v>
       </c>
       <c r="E3" t="n">
-        <v>27.32148329295993</v>
+        <v>27.36337828585079</v>
       </c>
       <c r="F3" t="n">
-        <v>27.14027986588828</v>
+        <v>27.18058117901942</v>
       </c>
       <c r="G3" t="n">
-        <v>17.14902077910192</v>
+        <v>21.62782752858367</v>
       </c>
       <c r="H3" t="n">
-        <v>25.11024588457892</v>
+        <v>25.12171099451316</v>
       </c>
       <c r="I3" t="n">
-        <v>23.99189338932188</v>
+        <v>23.98228593436999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.48510080738422</v>
+        <v>14.4995165635431</v>
       </c>
       <c r="C4" t="n">
-        <v>27.75564172366269</v>
+        <v>27.73189931201593</v>
       </c>
       <c r="D4" t="n">
-        <v>27.16628374139496</v>
+        <v>27.14027986588828</v>
       </c>
       <c r="E4" t="n">
-        <v>27.36115558436489</v>
+        <v>27.32148329295993</v>
       </c>
       <c r="F4" t="n">
-        <v>27.16628374139496</v>
+        <v>27.14027986588828</v>
       </c>
       <c r="G4" t="n">
-        <v>17.13606811535254</v>
+        <v>21.64075667620397</v>
       </c>
       <c r="H4" t="n">
-        <v>25.11170989818008</v>
+        <v>25.11024588457892</v>
       </c>
       <c r="I4" t="n">
-        <v>23.95039649717871</v>
+        <v>23.99189338932188</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14.48497982696361</v>
+        <v>14.48510080738422</v>
       </c>
       <c r="C5" t="n">
-        <v>27.75423397099428</v>
+        <v>27.75564172366269</v>
       </c>
       <c r="D5" t="n">
-        <v>27.1783415307228</v>
+        <v>27.16628374139496</v>
       </c>
       <c r="E5" t="n">
-        <v>27.34974718979423</v>
+        <v>27.36115558436489</v>
       </c>
       <c r="F5" t="n">
-        <v>27.17836332885142</v>
+        <v>27.16628374139496</v>
       </c>
       <c r="G5" t="n">
-        <v>17.13697516447634</v>
+        <v>21.62089388800297</v>
       </c>
       <c r="H5" t="n">
-        <v>25.14808107345671</v>
+        <v>25.11170989818008</v>
       </c>
       <c r="I5" t="n">
-        <v>24.02942197673373</v>
+        <v>23.95039649717871</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.48706825028646</v>
+        <v>14.48497982696361</v>
       </c>
       <c r="C6" t="n">
-        <v>27.69164986588756</v>
+        <v>27.75423397099428</v>
       </c>
       <c r="D6" t="n">
-        <v>27.12066310063609</v>
+        <v>27.1783415307228</v>
       </c>
       <c r="E6" t="n">
-        <v>27.29184772019038</v>
+        <v>27.34974718979423</v>
       </c>
       <c r="F6" t="n">
-        <v>27.12066310063609</v>
+        <v>27.17836332885142</v>
       </c>
       <c r="G6" t="n">
-        <v>17.13434873113646</v>
+        <v>21.65503092435122</v>
       </c>
       <c r="H6" t="n">
-        <v>25.06867512805906</v>
+        <v>25.14808107345671</v>
       </c>
       <c r="I6" t="n">
-        <v>23.91735125218709</v>
+        <v>24.02942197673373</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.51690813240413</v>
+        <v>14.48706825028646</v>
       </c>
       <c r="C7" t="n">
-        <v>27.73541387582677</v>
+        <v>27.69164986588756</v>
       </c>
       <c r="D7" t="n">
-        <v>27.15532335986685</v>
+        <v>27.12066310063609</v>
       </c>
       <c r="E7" t="n">
-        <v>27.33677841706163</v>
+        <v>27.29184772019038</v>
       </c>
       <c r="F7" t="n">
-        <v>27.15532335986685</v>
+        <v>27.12066310063609</v>
       </c>
       <c r="G7" t="n">
-        <v>17.18259723679989</v>
+        <v>21.60299950000466</v>
       </c>
       <c r="H7" t="n">
-        <v>25.12824280903553</v>
+        <v>25.06867512805906</v>
       </c>
       <c r="I7" t="n">
-        <v>23.97880740875211</v>
+        <v>23.91735125218709</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.50663914390977</v>
+        <v>14.51690813240413</v>
       </c>
       <c r="C8" t="n">
-        <v>27.75822426506172</v>
+        <v>27.73541387582677</v>
       </c>
       <c r="D8" t="n">
-        <v>27.17247556792692</v>
+        <v>27.15532335986685</v>
       </c>
       <c r="E8" t="n">
-        <v>27.35597314857374</v>
+        <v>27.33677841706163</v>
       </c>
       <c r="F8" t="n">
-        <v>27.17247556792692</v>
+        <v>27.15532335986685</v>
       </c>
       <c r="G8" t="n">
-        <v>17.16196250226613</v>
+        <v>21.66110112557824</v>
       </c>
       <c r="H8" t="n">
-        <v>25.14130665025453</v>
+        <v>25.12824280903553</v>
       </c>
       <c r="I8" t="n">
-        <v>23.99234611418994</v>
+        <v>23.97880740875211</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.48977383929543</v>
+        <v>14.50663914390977</v>
       </c>
       <c r="C9" t="n">
-        <v>27.70761251995149</v>
+        <v>27.75822426506172</v>
       </c>
       <c r="D9" t="n">
-        <v>27.15499733887991</v>
+        <v>27.17247556792692</v>
       </c>
       <c r="E9" t="n">
-        <v>27.29818781688033</v>
+        <v>27.35597314857374</v>
       </c>
       <c r="F9" t="n">
-        <v>27.1549918056556</v>
+        <v>27.17247556792692</v>
       </c>
       <c r="G9" t="n">
-        <v>17.14126350673439</v>
+        <v>21.66207396296279</v>
       </c>
       <c r="H9" t="n">
-        <v>25.0607769853883</v>
+        <v>25.14130665025453</v>
       </c>
       <c r="I9" t="n">
-        <v>23.91410449391927</v>
+        <v>23.99234611418994</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14.5059729093162</v>
+        <v>14.48977383929543</v>
       </c>
       <c r="C10" t="n">
-        <v>27.73700507977534</v>
+        <v>27.70761251995149</v>
       </c>
       <c r="D10" t="n">
-        <v>27.13788464141244</v>
+        <v>27.15499733887991</v>
       </c>
       <c r="E10" t="n">
-        <v>27.3380768038767</v>
+        <v>27.29818781688033</v>
       </c>
       <c r="F10" t="n">
-        <v>27.13788464141244</v>
+        <v>27.1549918056556</v>
       </c>
       <c r="G10" t="n">
-        <v>17.14577105962604</v>
+        <v>21.60568347155311</v>
       </c>
       <c r="H10" t="n">
-        <v>25.07467567094465</v>
+        <v>25.0607769853883</v>
       </c>
       <c r="I10" t="n">
-        <v>23.9269836763322</v>
+        <v>23.91410449391927</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14.5059729093162</v>
+      </c>
+      <c r="C11" t="n">
+        <v>27.73700507977534</v>
+      </c>
+      <c r="D11" t="n">
+        <v>27.13788464141244</v>
+      </c>
+      <c r="E11" t="n">
+        <v>27.3380768038767</v>
+      </c>
+      <c r="F11" t="n">
+        <v>27.13788464141244</v>
+      </c>
+      <c r="G11" t="n">
+        <v>21.62291639793643</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25.07467567094465</v>
+      </c>
+      <c r="I11" t="n">
+        <v>23.9269836763322</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>14.4933240800243</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>27.67131530251543</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>27.10758281865728</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>27.27134715548713</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>27.10758281865728</v>
       </c>
-      <c r="G11" t="n">
-        <v>17.14623023484619</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>21.58759587179658</v>
+      </c>
+      <c r="H12" t="n">
         <v>25.04972300678268</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>23.86353568785949</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>14.4948131343902</v>
-      </c>
-      <c r="C12" t="n">
-        <v>27.73377059436497</v>
-      </c>
-      <c r="D12" t="n">
-        <v>27.1514413144405</v>
-      </c>
-      <c r="E12" t="n">
-        <v>27.32879754150397</v>
-      </c>
-      <c r="F12" t="n">
-        <v>27.15144294093093</v>
-      </c>
-      <c r="G12" t="n">
-        <v>17.14653080257289</v>
-      </c>
-      <c r="H12" t="n">
-        <v>25.10151481011936</v>
-      </c>
-      <c r="I12" t="n">
-        <v>23.95471264308444</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>13.23895745997476</v>
-      </c>
-      <c r="D13" t="n">
-        <v>12.65662818005029</v>
-      </c>
-      <c r="E13" t="n">
-        <v>12.83398440711377</v>
-      </c>
-      <c r="F13" t="n">
-        <v>12.65662980654072</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.651717668182684</v>
-      </c>
-      <c r="H13" t="n">
-        <v>10.60670167572916</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9.459899508694239</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.276578195576679</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7947832969358047</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8071468156628633</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.786405149442635</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8071468156628633</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.5184921593866675</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.7200005279763748</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.6941046065793035</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.2768587062850248</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.79315767654257</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8054964290147886</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7824069797918695</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.8054964290147886</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.5261313642612567</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.7240458513054717</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.6920736166446637</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.2769130735189579</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7953572912388227</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8051234332479458</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7822609760683998</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.8051234332479458</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.5235176117846608</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.7235772983264747</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.6895810490947133</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.276924272054818</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7921059769129124</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8121327172447691</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.7804313947430027</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.8121334788258578</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.5226422721293381</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.7158553759486851</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.6892963287332764</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.2769169642062545</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7938310228864033</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8114313080785811</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.7841108597382088</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.8114313080785811</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.5269350879551725</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.7191838369232</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.6914378240474753</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.2778110391268725</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7979100451298006</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8076651569227029</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.7848500882687414</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8076651569227029</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5236522574420925</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.7195875854235514</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.6909012163860125</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.2775967865658335</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7956579808631541</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8093163104802602</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.7815606111806558</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8093163104802602</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.526577207647516</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.7215068880019938</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.6924727135671663</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.2765904069579182</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.795370581682919</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8004585062754462</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.7866485165476008</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.8004582797256435</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.5285147522720475</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.7183901567974529</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.6856724354173316</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.2770492041596618</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7925725021415175</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8099894103250289</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7834481252935834</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.8099894103250289</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.5242390809963698</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.7171877671158732</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.6924602580938842</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.277073036239038</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7927897365280057</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.7943886421228697</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.7763801189858468</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.7943886421228697</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.5253165584003809</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.7146707216876558</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.6875207370168422</v>
       </c>
     </row>
   </sheetData>
